--- a/data/5_results/with_cot/result_with_cot_2.xlsx
+++ b/data/5_results/with_cot/result_with_cot_2.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
@@ -505,23 +505,35 @@
           <t>upper wire size</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.4042553191489361</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4269662921348315</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3454545454545455</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27</v>
-      </c>
-      <c r="G2" t="n">
-        <v>49.09090909090909</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0,594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,704</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,644</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0,990</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>27,000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>19</v>
@@ -539,23 +551,35 @@
           <t>upper wire material</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4255319148936171</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45.45454545454545</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0,645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0,800</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,714</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0,936</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>20</v>
@@ -573,23 +597,35 @@
           <t>lower wire size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4318181818181818</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3454545454545455</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50.90909090909091</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0,594</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0,679</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,633</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0,971</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>28,000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>19</v>
@@ -607,23 +643,35 @@
           <t>lower wire material</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4421052631578947</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3818181818181818</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47.27272727272727</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0,677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0,808</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,737</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0,935</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>26,000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>21</v>
@@ -641,23 +689,35 @@
           <t>changed upper arch wire</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.2285714285714286</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="F6" t="n">
-        <v>28</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50.90909090909091</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0,276</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0,286</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,281</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0,990</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>28,000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>8</v>
@@ -675,23 +735,35 @@
           <t>changed lower arch wire</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="F7" t="n">
-        <v>28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50.90909090909091</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0,345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0,357</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0,351</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>28,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -709,23 +781,35 @@
           <t>ligature method</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>21.81818181818182</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0,062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0,083</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0,071</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0,911</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -743,23 +827,35 @@
           <t>oral hygiene</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="F9" t="n">
-        <v>17</v>
-      </c>
-      <c r="G9" t="n">
-        <v>30.90909090909091</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0,588</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0,476</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0,980</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0,31</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -777,23 +873,35 @@
           <t>elastic pattern left</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.108695652173913</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F10" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>25.45454545454545</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0,312</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0,357</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0,892</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>14,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -811,23 +919,35 @@
           <t>right canine class</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.36363636363636</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,267</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -845,23 +965,35 @@
           <t>left canine class</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.36363636363636</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0,267</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0,904</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -879,23 +1011,35 @@
           <t>right molar class</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>18.18181818181818</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0,286</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0,982</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>2</v>
@@ -913,23 +1057,35 @@
           <t>left molar class</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.02127659574468085</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0202020202020202</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.36363636363636</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0,250</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0,111</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0,154</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,909</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -947,23 +1103,35 @@
           <t>class ii elastic</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.2115384615384615</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2291666666666667</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>25.45454545454545</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0,786</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0,611</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>14,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>11</v>
@@ -981,23 +1149,35 @@
           <t>elastic pattern right</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.1224489795918367</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1276595744680851</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21.81818181818182</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0,375</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0,429</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0,962</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>12,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>6</v>
@@ -1015,23 +1195,35 @@
           <t>compliance</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.1568627450980392</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.163265306122449</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" t="n">
-        <v>21.81818181818182</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0,571</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0,615</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0,929</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>12,000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>8</v>
@@ -1049,23 +1241,35 @@
           <t>overjet (mm)</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>12.72727272727273</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0,940</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1083,23 +1287,35 @@
           <t>elastic type left</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>18.18181818181818</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0,462</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0,600</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,522</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0,915</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>6</v>
@@ -1117,23 +1333,35 @@
           <t>elastic type right</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1212121212121212</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>18.18181818181818</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0,462</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0,600</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0,522</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0,915</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>6</v>
@@ -1151,23 +1379,35 @@
           <t>overbite (mm)</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.54545454545454</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0,250</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0,167</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0,931</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1185,23 +1425,35 @@
           <t>debonded bracket</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.03703703703703703</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.0396039603960396</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>18.18181818181818</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0,308</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -1219,23 +1471,35 @@
           <t>lower retainer</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>9.090909090909092</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0,710</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1253,23 +1517,35 @@
           <t>emergency type</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>11</v>
-      </c>
-      <c r="G24" t="n">
-        <v>20</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0,828</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>11,000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1287,23 +1563,35 @@
           <t>upper retainer</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.272727272727272</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0,661</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1321,23 +1609,35 @@
           <t>space closure sliding mechanics</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.04040404040404041</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.272727272727272</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0,182</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0,267</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
@@ -1355,23 +1655,35 @@
           <t>photos taken</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.454545454545454</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1389,23 +1701,35 @@
           <t>upper arch bends</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7.272727272727272</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0,143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>2</v>
@@ -1423,23 +1747,35 @@
           <t>class i elastic</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.04494382022471911</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-      <c r="G29" t="n">
-        <v>12.72727272727273</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0,111</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0,286</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0,160</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
@@ -1457,23 +1793,35 @@
           <t>class iii elastic</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.06122448979591836</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5.454545454545454</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>3</v>
@@ -1491,23 +1839,35 @@
           <t>appliance</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.636363636363636</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1525,23 +1885,35 @@
           <t>lower arch bends</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.0576923076923077</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.06315789473684211</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6</v>
-      </c>
-      <c r="G32" t="n">
-        <v>10.90909090909091</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0,200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0,286</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -1559,23 +1931,35 @@
           <t>retainer check</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>9.090909090909092</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>5</v>
@@ -1593,23 +1977,35 @@
           <t>xrays taken</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.01886792452830189</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.01941747572815534</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
-      </c>
-      <c r="G34" t="n">
-        <v>10.90909090909091</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0,333</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0,167</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1627,23 +2023,35 @@
           <t>intra oral scanning taken</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7.272727272727272</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1661,23 +2069,35 @@
           <t>emergency</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.06382978723404255</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0588235294117647</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F36" t="n">
-        <v>11</v>
-      </c>
-      <c r="G36" t="n">
-        <v>20</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0,273</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0,429</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0,273</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>11,000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0,20</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>3</v>
@@ -1695,23 +2115,35 @@
           <t>lower arch reverse curve of spee</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10.90909090909091</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1729,23 +2161,35 @@
           <t>bracket or band repositioning</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3.636363636363636</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1763,23 +2207,35 @@
           <t>open spring</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.818181818181818</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0,883</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1797,23 +2253,35 @@
           <t>upper bonding</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0380952380952381</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" t="n">
-        <v>7.272727272727272</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,444</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>2</v>
@@ -1831,23 +2299,35 @@
           <t>ipr</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.01851851851851852</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.01834862385321101</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1.818181818181818</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1865,23 +2345,35 @@
           <t>re-tie appointment</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.818181818181818</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1899,23 +2391,35 @@
           <t>lower bonding</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="n">
-        <v>9.090909090909092</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0,400</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -1933,23 +2437,35 @@
           <t>posterior bite turbos</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5.454545454545454</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1967,23 +2483,35 @@
           <t>cross elastic</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.0396039603960396</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7.272727272727272</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0,308</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H45" t="n">
         <v>2</v>
@@ -2001,23 +2529,35 @@
           <t>upper arch accentuated curve of spee</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>3.636363636363636</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2035,23 +2575,35 @@
           <t>upper debond</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.818181818181818</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2069,23 +2621,35 @@
           <t>lower debond</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.818181818181818</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2100,60 +2664,90 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>prescription and bracket slot</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3.636363636363636</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2</v>
+          <t>TADs</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tmj symptoms</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.818181818181818</v>
+          <t>prescription and bracket slot</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2162,202 +2756,286 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>referral</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.636363636363636</v>
+          <t>tmj symptoms</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>extractions</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
+          <t>Enameloplasty</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tpa</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
+          <t>referral</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0,295</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="G53" t="n">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>space closure loop mechanics</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3.636363636363636</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2</v>
+          <t>Unilateral Posterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>upper banding</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3.636363636363636</v>
+          <t>extractions</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>relapse</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3.636363636363636</v>
+          <t>tpa</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2366,32 +3044,44 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>upper active movement</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1.818181818181818</v>
+          <t>space closure loop mechanics</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2400,32 +3090,44 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lower active movement</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>3</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5.454545454545454</v>
+          <t>upper banding</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2434,32 +3136,44 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>closed spring</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.818181818181818</v>
+          <t>relapse</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2468,32 +3182,44 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>lower banding</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.818181818181818</v>
+          <t>upper active movement</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,26 +3234,38 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>patient id.1</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3.636363636363636</v>
+          <t>lower active movement</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,66 +3274,90 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>upper arch reverse curve of spee</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
+          <t>closed spring</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>anterior crossbite</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.818181818181818</v>
+          <t>lower banding</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2605,6 +3367,924 @@
       </c>
       <c r="J63" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>patient id.1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NiTi Closing Spring</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Anterior Bite Turbos</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TADs.1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>upper arch reverse curve of spee</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Maxillary Expander</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LLHA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>anterior crossbite</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Debonded Bracket/Band</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Lower Arch Curve of Spee</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intrusion Arch</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bilateral Posterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Lower Arch Accentuated Curve of Spee</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Active Traction</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Active Tooth Traction</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mandibular Advancement Appliance</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Teeth Pain</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Arch Coordination</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +4298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,78 +4306,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Mode</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Simple Average</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Weighted Average</t>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>W F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W SEM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.06366377575809933</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1686061465873248</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.06932555286235226</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1842267591346806</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0662805256218869</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1759195137439839</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Semantic Similarity</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.05513196480938417</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1419951729686243</v>
+          <t>with_cot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0,212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,635</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,378</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0,864</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2774,7 +4441,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/with_cot/result_with_cot_2.xlsx
+++ b/data/5_results/with_cot/result_with_cot_2.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,594</t>
+          <t>0,651</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,704</t>
+          <t>0,824</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,644</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>27,000</t>
+          <t>34,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,645</t>
+          <t>0,628</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,800</t>
+          <t>0,818</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,711</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,936</t>
+          <t>0,946</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>33,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,594</t>
+          <t>0,581</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,679</t>
+          <t>0,758</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,633</t>
+          <t>0,658</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,971</t>
+          <t>0,993</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>33,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,677</t>
+          <t>0,698</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,808</t>
+          <t>0,909</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,737</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,935</t>
+          <t>0,964</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26,000</t>
+          <t>33,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,40</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,276</t>
+          <t>0,326</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,350</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,281</t>
+          <t>0,337</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,990</t>
+          <t>0,993</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,345</t>
+          <t>0,349</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,385</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,351</t>
+          <t>0,366</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,071</t>
+          <t>0,195</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,911</t>
+          <t>0,973</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -829,42 +829,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,980</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,312</t>
+          <t>0,421</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,457</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,892</t>
+          <t>0,904</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" t="n">
         <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,926</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -946,17 +946,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,904</t>
+          <t>0,925</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,954</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,909</t>
+          <t>0,954</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1105,42 +1105,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,304</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,786</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,611</t>
+          <t>0,412</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,970</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1151,39 +1151,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,962</t>
+          <t>0,933</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,615</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1258,27 +1258,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,940</t>
+          <t>0,493</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,267</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,915</t>
+          <t>0,368</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,915</t>
+          <t>0,383</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
         <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,931</t>
+          <t>0,699</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
         <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,105</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,710</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1498,14 +1498,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>5</v>
@@ -1534,27 +1534,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,828</t>
+          <t>0,844</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,661</t>
+          <t>0,836</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1590,14 +1590,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -1611,42 +1611,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,190</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1749,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,160</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,918</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1856,12 +1856,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1912,17 +1912,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1933,24 +1933,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0,800</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,727</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>5,000</t>
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>0,333</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0,167</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2004,17 +2004,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,16 +2045,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>2</v>
@@ -2071,42 +2071,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0,273</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0,429</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0,273</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,20</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2183,22 +2183,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -2224,27 +2224,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,883</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2255,42 +2255,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,444</t>
+          <t>0,154</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>0,083</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4,000</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,26 +2311,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2372,14 +2372,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2546,12 +2546,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -2643,120 +2643,120 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TADs</t>
+          <t>tads</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>prescription and bracket slot</t>
+          <t>Prescription and Bracket Slot</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2880,27 +2880,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,295</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
         <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3320,53 +3320,59 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lower banding</t>
+          <t>Lower Banding</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3397,12 +3403,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3412,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3594,27 +3600,27 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3754,7 +3760,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3978,53 +3984,47 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lower Arch Accentuated Curve of Spee</t>
+          <t>lower arch accentuated curve of spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4348,22 +4348,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,212</t>
+          <t>0,179</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,635</t>
+          <t>0,640</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,378</t>
+          <t>0,347</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,864</t>
+          <t>0,876</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -4441,7 +4441,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/with_cot/result_with_cot_2.xlsx
+++ b/data/5_results/with_cot/result_with_cot_2.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,651</t>
+          <t>0,720</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,824</t>
+          <t>0,818</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,766</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,995</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>34,000</t>
+          <t>44,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,628</t>
+          <t>0,620</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,818</t>
+          <t>0,721</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,711</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,946</t>
+          <t>0,984</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>33,000</t>
+          <t>43,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,581</t>
+          <t>0,660</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,758</t>
+          <t>0,767</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,658</t>
+          <t>0,710</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,993</t>
+          <t>0,992</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>33,000</t>
+          <t>43,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,698</t>
+          <t>0,660</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,909</t>
+          <t>0,786</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,717</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,964</t>
+          <t>0,983</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>33,000</t>
+          <t>42,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,40</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,326</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,350</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,337</t>
+          <t>0,426</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,993</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>44,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,349</t>
+          <t>0,360</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,385</t>
+          <t>0,439</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,366</t>
+          <t>0,396</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>41,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,192</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,195</t>
+          <t>0,159</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,973</t>
+          <t>0,948</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,395</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>37,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,421</t>
+          <t>0,520</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,565</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,457</t>
+          <t>0,542</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,904</t>
+          <t>0,976</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,077</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,105</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,926</t>
+          <t>0,954</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,071</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,925</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,133</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,190</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,954</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1105,42 +1105,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,304</t>
+          <t>0,567</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,708</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,412</t>
+          <t>0,630</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,970</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>17</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
         <v>7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,368</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,538</t>
+          <t>0,609</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,933</t>
+          <t>0,976</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
         <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,091</t>
+          <t>0,270</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,339</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,929</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,493</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,267</t>
+          <t>0,457</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,368</t>
+          <t>0,494</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,533</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,381</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,444</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,383</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,699</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,067</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,747</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1534,27 +1534,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,844</t>
+          <t>0,757</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,312</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,836</t>
+          <t>0,822</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1611,42 +1611,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,364</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,190</t>
+          <t>0,320</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1677,16 +1677,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
         <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1749,42 +1749,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,918</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1856,27 +1856,27 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1933,19 +1933,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>0,909</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>0,800</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0,727</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>1,000</t>
@@ -1953,19 +1953,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
         <v>4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2132,27 +2132,27 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2198,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2224,27 +2224,27 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2255,42 +2255,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,182</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,154</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,948</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2301,42 +2301,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,857</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>3</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,083</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,32 +2403,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,936</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2439,42 +2439,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2485,42 +2485,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2592,27 +2592,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2638,27 +2638,27 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2669,39 +2669,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2710,53 +2710,47 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Prescription and Bracket Slot</t>
+          <t>prescription and bracket slot</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2787,12 +2781,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2802,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2885,12 +2879,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2900,59 +2894,53 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Unilateral Posterior Crossbite</t>
+          <t>unilateral posterior crossbite</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2963,42 +2951,42 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3029,12 +3017,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3044,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3075,12 +3063,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3090,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3121,12 +3109,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3136,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3167,12 +3155,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3182,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3213,12 +3201,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3228,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -3280,145 +3268,151 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>closed spring</t>
+          <t>Closed Spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Lower Banding</t>
+          <t>lower banding</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>patient id.1</t>
+          <t>Patient ID.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3476,53 +3470,47 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Anterior Bite Turbos</t>
+          <t>anterior bite turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3600,79 +3588,73 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Maxillary Expander</t>
+          <t>maxillary expander</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3730,47 +3712,53 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>anterior crossbite</t>
+          <t>Anterior Crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3984,47 +3972,53 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lower arch accentuated curve of spee</t>
+          <t>Lower Arch Accentuated Curve of Spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4348,22 +4342,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,179</t>
+          <t>0,209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,640</t>
+          <t>0,612</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,347</t>
+          <t>0,399</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,876</t>
+          <t>0,866</t>
         </is>
       </c>
     </row>
@@ -4431,7 +4425,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -4441,7 +4435,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
